--- a/서버 아이디 부여대장/서버 아이디 부여대장.xlsx
+++ b/서버 아이디 부여대장/서버 아이디 부여대장.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조교행님\Google Drive\웹프로그래밍실습\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조교행님\Google Drive\웹프로그래밍실습\서버 아이디 부여대장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A46CE50-0A5F-4B78-A105-BF4896A27BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856C972-306D-458A-BFA4-FD3A43470913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D203B18A-584E-4680-9B96-D9DC8DF70102}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D203B18A-584E-4680-9B96-D9DC8DF70102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>web1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,230 +160,280 @@
     <t>조성동</t>
   </si>
   <si>
+    <t>web14</t>
+  </si>
+  <si>
+    <t>web15</t>
+  </si>
+  <si>
+    <t>web16</t>
+  </si>
+  <si>
+    <t>web17</t>
+  </si>
+  <si>
+    <t>web18</t>
+  </si>
+  <si>
+    <t>web19</t>
+  </si>
+  <si>
+    <t>web20</t>
+  </si>
+  <si>
+    <t>web21</t>
+  </si>
+  <si>
+    <t>web22</t>
+  </si>
+  <si>
+    <t>web23</t>
+  </si>
+  <si>
+    <t>web24</t>
+  </si>
+  <si>
+    <t>web25</t>
+  </si>
+  <si>
+    <t>web26</t>
+  </si>
+  <si>
+    <t>web27</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>김남혁</t>
+  </si>
+  <si>
+    <t>강요섭</t>
+  </si>
+  <si>
+    <t>김명진</t>
+  </si>
+  <si>
+    <t>김민수</t>
+  </si>
+  <si>
+    <t>김민제</t>
+  </si>
+  <si>
+    <t>박재민</t>
+  </si>
+  <si>
+    <t>신재형</t>
+  </si>
+  <si>
+    <t>양소열</t>
+  </si>
+  <si>
+    <t>정연지</t>
+  </si>
+  <si>
+    <t>천영관</t>
+  </si>
+  <si>
+    <t>표수용</t>
+  </si>
+  <si>
+    <t>하현후</t>
+  </si>
+  <si>
+    <t>고수민</t>
+  </si>
+  <si>
+    <t>손엄지</t>
+  </si>
+  <si>
+    <t>오주연</t>
+  </si>
+  <si>
+    <t>원지은</t>
+  </si>
+  <si>
+    <t>이봄이</t>
+  </si>
+  <si>
+    <t>이지민</t>
+  </si>
+  <si>
+    <t>이현주</t>
+  </si>
+  <si>
+    <t>정보건</t>
+  </si>
+  <si>
+    <t>조정미</t>
+  </si>
+  <si>
+    <t>최승호</t>
+  </si>
+  <si>
+    <t>web28</t>
+  </si>
+  <si>
+    <t>web29</t>
+  </si>
+  <si>
+    <t>web30</t>
+  </si>
+  <si>
+    <t>web31</t>
+  </si>
+  <si>
+    <t>web32</t>
+  </si>
+  <si>
+    <t>web33</t>
+  </si>
+  <si>
+    <t>web34</t>
+  </si>
+  <si>
+    <t>web35</t>
+  </si>
+  <si>
+    <t>web36</t>
+  </si>
+  <si>
+    <t>web37</t>
+  </si>
+  <si>
+    <t>web38</t>
+  </si>
+  <si>
+    <t>web39</t>
+  </si>
+  <si>
+    <t>web40</t>
+  </si>
+  <si>
+    <t>web41</t>
+  </si>
+  <si>
+    <t>web42</t>
+  </si>
+  <si>
+    <t>web43</t>
+  </si>
+  <si>
+    <t>web44</t>
+  </si>
+  <si>
+    <t>web45</t>
+  </si>
+  <si>
+    <t>web46</t>
+  </si>
+  <si>
+    <t>web47</t>
+  </si>
+  <si>
+    <t>web48</t>
+  </si>
+  <si>
+    <t>web49</t>
+  </si>
+  <si>
+    <t>web50</t>
+  </si>
+  <si>
+    <t>* 비밀번호는 아이디와 같으므로 접속과 동시에 변경할 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh 아이디@203.255.3.144 -p 1314</t>
+  </si>
+  <si>
+    <t>변경하는법: passwd 명령어 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MariaDB 접속하는법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql -u 아이디 -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호는 아이디와 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예를들면, web1 비밀번호를 123456으로 변경하고싶을경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET PASSWORD FOR 'web1'@'localhost' = PASSWORD('123456');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET PASSWORD FOR '아이디'@'%' = PASSWORD('패스워드내용');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 비밀번호 변경하는법(맨 끝에 세미콜론!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 접속방법: 터미널 혹은 파워셸 키고 아래 명령어 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이영민</t>
-  </si>
-  <si>
-    <t>web14</t>
-  </si>
-  <si>
-    <t>web15</t>
-  </si>
-  <si>
-    <t>web16</t>
-  </si>
-  <si>
-    <t>web17</t>
-  </si>
-  <si>
-    <t>web18</t>
-  </si>
-  <si>
-    <t>web19</t>
-  </si>
-  <si>
-    <t>web20</t>
-  </si>
-  <si>
-    <t>web21</t>
-  </si>
-  <si>
-    <t>web22</t>
-  </si>
-  <si>
-    <t>web23</t>
-  </si>
-  <si>
-    <t>web24</t>
-  </si>
-  <si>
-    <t>web25</t>
-  </si>
-  <si>
-    <t>web26</t>
-  </si>
-  <si>
-    <t>web27</t>
-  </si>
-  <si>
-    <t>김지윤</t>
-  </si>
-  <si>
-    <t>김남혁</t>
-  </si>
-  <si>
-    <t>강요섭</t>
-  </si>
-  <si>
-    <t>김명진</t>
-  </si>
-  <si>
-    <t>김민수</t>
-  </si>
-  <si>
-    <t>김민제</t>
-  </si>
-  <si>
-    <t>박재민</t>
-  </si>
-  <si>
-    <t>신재형</t>
-  </si>
-  <si>
-    <t>양소열</t>
-  </si>
-  <si>
-    <t>정연지</t>
-  </si>
-  <si>
-    <t>천영관</t>
-  </si>
-  <si>
-    <t>표수용</t>
-  </si>
-  <si>
-    <t>하현후</t>
-  </si>
-  <si>
-    <t>고수민</t>
-  </si>
-  <si>
-    <t>손엄지</t>
-  </si>
-  <si>
-    <t>오주연</t>
-  </si>
-  <si>
-    <t>원지은</t>
-  </si>
-  <si>
-    <t>이봄이</t>
-  </si>
-  <si>
-    <t>이지민</t>
-  </si>
-  <si>
-    <t>이현주</t>
-  </si>
-  <si>
-    <t>정보건</t>
-  </si>
-  <si>
-    <t>조정미</t>
-  </si>
-  <si>
-    <t>최승호</t>
-  </si>
-  <si>
-    <t>web28</t>
-  </si>
-  <si>
-    <t>web29</t>
-  </si>
-  <si>
-    <t>web30</t>
-  </si>
-  <si>
-    <t>web31</t>
-  </si>
-  <si>
-    <t>web32</t>
-  </si>
-  <si>
-    <t>web33</t>
-  </si>
-  <si>
-    <t>web34</t>
-  </si>
-  <si>
-    <t>web35</t>
-  </si>
-  <si>
-    <t>web36</t>
-  </si>
-  <si>
-    <t>web37</t>
-  </si>
-  <si>
-    <t>web38</t>
-  </si>
-  <si>
-    <t>web39</t>
-  </si>
-  <si>
-    <t>web40</t>
-  </si>
-  <si>
-    <t>web41</t>
-  </si>
-  <si>
-    <t>web42</t>
-  </si>
-  <si>
-    <t>web43</t>
-  </si>
-  <si>
-    <t>web44</t>
-  </si>
-  <si>
-    <t>web45</t>
-  </si>
-  <si>
-    <t>web46</t>
-  </si>
-  <si>
-    <t>web47</t>
-  </si>
-  <si>
-    <t>web48</t>
-  </si>
-  <si>
-    <t>web49</t>
-  </si>
-  <si>
-    <t>web50</t>
-  </si>
-  <si>
-    <t>* 비밀번호는 아이디와 같으므로 접속과 동시에 변경할 것.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssh 아이디@203.255.3.144 -p 1314</t>
-  </si>
-  <si>
-    <t>변경하는법: passwd 명령어 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MariaDB 접속하는법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql -u 아이디 -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호는 아이디와 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예를들면, web1 비밀번호를 123456으로 변경하고싶을경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET PASSWORD FOR 'web1'@'localhost' = PASSWORD('123456');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET PASSWORD FOR '아이디'@'%' = PASSWORD('패스워드내용');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql 비밀번호 변경하는법(맨 끝에 세미콜론!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버 접속방법: 터미널 혹은 파워셸 키고 아래 명령어 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노철환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤의진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정태영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한지은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web51</t>
+  </si>
+  <si>
+    <t>web52</t>
+  </si>
+  <si>
+    <t>web53</t>
+  </si>
+  <si>
+    <t>web54</t>
+  </si>
+  <si>
+    <t>web55</t>
+  </si>
+  <si>
+    <t>web56</t>
+  </si>
+  <si>
+    <t>web57</t>
   </si>
 </sst>
 </file>
@@ -433,7 +483,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,8 +495,12 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,7 +510,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -466,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,6 +535,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -793,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917E8452-94EA-4D88-80E1-F576E1F2069B}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -822,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -830,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -844,7 +908,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -855,7 +919,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,7 +949,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,7 +960,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,7 +971,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,7 +982,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -929,7 +993,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,12 +1004,12 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -953,7 +1017,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>31</v>
@@ -961,7 +1025,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -969,7 +1033,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -977,7 +1041,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -985,7 +1049,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -993,7 +1057,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
@@ -1001,7 +1065,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1009,7 +1073,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
@@ -1017,7 +1081,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -1025,7 +1089,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -1033,7 +1097,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
@@ -1041,7 +1105,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -1049,194 +1113,250 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>76</v>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/서버 아이디 부여대장/서버 아이디 부여대장.xlsx
+++ b/서버 아이디 부여대장/서버 아이디 부여대장.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\조교행님\Google Drive\웹프로그래밍실습\서버 아이디 부여대장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856C972-306D-458A-BFA4-FD3A43470913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167EE296-DBAE-4D05-B639-9C85B9E8CC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D203B18A-584E-4680-9B96-D9DC8DF70102}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>web1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SET PASSWORD FOR '아이디'@'%' = PASSWORD('패스워드내용');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mysql 비밀번호 변경하는법(맨 끝에 세미콜론!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,6 +430,18 @@
   </si>
   <si>
     <t>web57</t>
+  </si>
+  <si>
+    <t>SET PASSWORD FOR '아이디'@'localhost' = PASSWORD('패스워드내용');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예를 들면, web3라면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh web3@203.255.3.144 -p 1314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -860,14 +868,14 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -886,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -894,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
@@ -908,7 +916,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,7 +927,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -929,6 +937,9 @@
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -938,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -948,9 +959,6 @@
       <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -960,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -971,7 +979,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -982,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1004,7 +1012,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,6 +1022,9 @@
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1022,6 +1033,9 @@
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1305,58 +1319,58 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
